--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H2">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I2">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J2">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5027769999999999</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N2">
-        <v>1.508331</v>
+        <v>1.6861</v>
       </c>
       <c r="O2">
-        <v>0.01505293423242436</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P2">
-        <v>0.01505293423242436</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q2">
-        <v>0.289684521313</v>
+        <v>0.2654903084888889</v>
       </c>
       <c r="R2">
-        <v>2.607160691817</v>
+        <v>2.3894127764</v>
       </c>
       <c r="S2">
-        <v>0.0004899085281968777</v>
+        <v>0.0004475971912915759</v>
       </c>
       <c r="T2">
-        <v>0.0004899085281968777</v>
+        <v>0.0004475971912915759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H3">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I3">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J3">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>98.13091799999999</v>
       </c>
       <c r="O3">
-        <v>0.9793329546508215</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P3">
-        <v>0.9793329546508215</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q3">
-        <v>18.846664297714</v>
+        <v>15.45151989331466</v>
       </c>
       <c r="R3">
-        <v>169.619978679426</v>
+        <v>139.063679039832</v>
       </c>
       <c r="S3">
-        <v>0.03187309258245603</v>
+        <v>0.02605012945594208</v>
       </c>
       <c r="T3">
-        <v>0.03187309258245603</v>
+        <v>0.02605012945594208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.4723746666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.417124</v>
+      </c>
+      <c r="I4">
+        <v>0.02676815992729067</v>
+      </c>
+      <c r="J4">
+        <v>0.02676815992729067</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.576169</v>
-      </c>
-      <c r="H4">
-        <v>1.728507</v>
-      </c>
-      <c r="I4">
-        <v>0.03254571637877773</v>
-      </c>
-      <c r="J4">
-        <v>0.03254571637877773</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.1531426666666667</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N4">
-        <v>0.459428</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O4">
-        <v>0.004585027734982747</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P4">
-        <v>0.004585027734982747</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q4">
-        <v>0.08823605711066668</v>
+        <v>0.0808406258711111</v>
       </c>
       <c r="R4">
-        <v>0.794124513996</v>
+        <v>0.7275656328399999</v>
       </c>
       <c r="S4">
-        <v>0.0001492230122515781</v>
+        <v>0.0001362913670488156</v>
       </c>
       <c r="T4">
-        <v>0.0001492230122515781</v>
+        <v>0.0001362913670488156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,57 +720,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H5">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I5">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J5">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03437200000000001</v>
+        <v>0.133027</v>
       </c>
       <c r="N5">
-        <v>0.103116</v>
+        <v>0.399081</v>
       </c>
       <c r="O5">
-        <v>0.001029083381771422</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P5">
-        <v>0.001029083381771422</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q5">
-        <v>0.01980408086800001</v>
+        <v>0.06283858478266666</v>
       </c>
       <c r="R5">
-        <v>0.178236727812</v>
+        <v>0.5655472630439999</v>
       </c>
       <c r="S5">
-        <v>3.349225587324616E-05</v>
+        <v>0.0001059412458916039</v>
       </c>
       <c r="T5">
-        <v>3.349225587324616E-05</v>
+        <v>0.0001059412458916039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>17.041313</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H6">
-        <v>51.123939</v>
+        <v>1.417124</v>
       </c>
       <c r="I6">
-        <v>0.9626025343605399</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J6">
-        <v>0.9626025343605399</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5027769999999999</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N6">
-        <v>1.508331</v>
+        <v>0.106232</v>
       </c>
       <c r="O6">
-        <v>0.01505293423242436</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P6">
-        <v>0.01505293423242436</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q6">
-        <v>8.567980226200998</v>
+        <v>0.01672710186311111</v>
       </c>
       <c r="R6">
-        <v>77.111822035809</v>
+        <v>0.150543916768</v>
       </c>
       <c r="S6">
-        <v>0.01448999264169422</v>
+        <v>2.820066711659255E-05</v>
       </c>
       <c r="T6">
-        <v>0.01448999264169422</v>
+        <v>2.820066711659254E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>51.123939</v>
       </c>
       <c r="I7">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J7">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.710306</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N7">
-        <v>98.13091799999999</v>
+        <v>1.6861</v>
       </c>
       <c r="O7">
-        <v>0.9793329546508215</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P7">
-        <v>0.9793329546508215</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q7">
-        <v>557.4265628717778</v>
+        <v>9.577785949766666</v>
       </c>
       <c r="R7">
-        <v>5016.839065846002</v>
+        <v>86.20007354789999</v>
       </c>
       <c r="S7">
-        <v>0.9427083841296764</v>
+        <v>0.01614744475724203</v>
       </c>
       <c r="T7">
-        <v>0.9427083841296764</v>
+        <v>0.01614744475724203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +918,10 @@
         <v>51.123939</v>
       </c>
       <c r="I8">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J8">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1531426666666667</v>
+        <v>32.710306</v>
       </c>
       <c r="N8">
-        <v>0.459428</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O8">
-        <v>0.004585027734982747</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P8">
-        <v>0.004585027734982747</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q8">
-        <v>2.609752116321333</v>
+        <v>557.4265628717778</v>
       </c>
       <c r="R8">
-        <v>23.487769046892</v>
+        <v>5016.839065846002</v>
       </c>
       <c r="S8">
-        <v>0.004413559317807758</v>
+        <v>0.9397803080377484</v>
       </c>
       <c r="T8">
-        <v>0.004413559317807758</v>
+        <v>0.9397803080377484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,45 +980,45 @@
         <v>51.123939</v>
       </c>
       <c r="I9">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J9">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03437200000000001</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N9">
-        <v>0.103116</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O9">
-        <v>0.001029083381771422</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P9">
-        <v>0.001029083381771422</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q9">
-        <v>0.5857440104360001</v>
+        <v>2.916393502443333</v>
       </c>
       <c r="R9">
-        <v>5.271696093924001</v>
+        <v>26.24754152198999</v>
       </c>
       <c r="S9">
-        <v>0.0009905982713614861</v>
+        <v>0.004916825581410136</v>
       </c>
       <c r="T9">
-        <v>0.0009905982713614861</v>
+        <v>0.004916825581410136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08589233333333333</v>
+        <v>17.041313</v>
       </c>
       <c r="H10">
-        <v>0.257677</v>
+        <v>51.123939</v>
       </c>
       <c r="I10">
-        <v>0.004851749260682375</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J10">
-        <v>0.004851749260682375</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5027769999999999</v>
+        <v>0.133027</v>
       </c>
       <c r="N10">
-        <v>1.508331</v>
+        <v>0.399081</v>
       </c>
       <c r="O10">
-        <v>0.01505293423242436</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P10">
-        <v>0.01505293423242436</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q10">
-        <v>0.04318468967633333</v>
+        <v>2.266954744451</v>
       </c>
       <c r="R10">
-        <v>0.3886622070869999</v>
+        <v>20.402592700059</v>
       </c>
       <c r="S10">
-        <v>7.303306253326531E-05</v>
+        <v>0.003821919459797703</v>
       </c>
       <c r="T10">
-        <v>7.303306253326531E-05</v>
+        <v>0.003821919459797703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08589233333333333</v>
+        <v>17.041313</v>
       </c>
       <c r="H11">
-        <v>0.257677</v>
+        <v>51.123939</v>
       </c>
       <c r="I11">
-        <v>0.004851749260682375</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J11">
-        <v>0.004851749260682375</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>32.710306</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N11">
-        <v>98.13091799999999</v>
+        <v>0.106232</v>
       </c>
       <c r="O11">
-        <v>0.9793329546508215</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P11">
-        <v>0.9793329546508215</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q11">
-        <v>2.809564506387333</v>
+        <v>0.6034442542053333</v>
       </c>
       <c r="R11">
-        <v>25.286080557486</v>
+        <v>5.430998287847999</v>
       </c>
       <c r="S11">
-        <v>0.004751477938689009</v>
+        <v>0.001017362761076648</v>
       </c>
       <c r="T11">
-        <v>0.004751477938689009</v>
+        <v>0.001017362761076647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H12">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I12">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J12">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1531426666666667</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N12">
-        <v>0.459428</v>
+        <v>1.6861</v>
       </c>
       <c r="O12">
-        <v>0.004585027734982747</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P12">
-        <v>0.004585027734982747</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q12">
-        <v>0.01315378097288889</v>
+        <v>0.07486190327777777</v>
       </c>
       <c r="R12">
-        <v>0.118384028756</v>
+        <v>0.6737571295</v>
       </c>
       <c r="S12">
-        <v>2.224540492341072E-05</v>
+        <v>0.0001262116791855598</v>
       </c>
       <c r="T12">
-        <v>2.224540492341072E-05</v>
+        <v>0.0001262116791855598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1222,232 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H13">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I13">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J13">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.710306</v>
+      </c>
+      <c r="N13">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O13">
+        <v>0.9731759495871608</v>
+      </c>
+      <c r="P13">
+        <v>0.9731759495871608</v>
+      </c>
+      <c r="Q13">
+        <v>4.356958242023333</v>
+      </c>
+      <c r="R13">
+        <v>39.21262417821</v>
+      </c>
+      <c r="S13">
+        <v>0.007345512093470421</v>
+      </c>
+      <c r="T13">
+        <v>0.007345512093470421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1331983333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.399595</v>
+      </c>
+      <c r="I14">
+        <v>0.007547979475434553</v>
+      </c>
+      <c r="J14">
+        <v>0.007547979475434553</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1711366666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.5134099999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.005091547847107109</v>
+      </c>
+      <c r="P14">
+        <v>0.005091547847107109</v>
+      </c>
+      <c r="Q14">
+        <v>0.02279511877222222</v>
+      </c>
+      <c r="R14">
+        <v>0.20515606895</v>
+      </c>
+      <c r="S14">
+        <v>3.843089864815744E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.843089864815744E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1331983333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.399595</v>
+      </c>
+      <c r="I15">
+        <v>0.007547979475434553</v>
+      </c>
+      <c r="J15">
+        <v>0.007547979475434553</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.133027</v>
+      </c>
+      <c r="N15">
+        <v>0.399081</v>
+      </c>
+      <c r="O15">
+        <v>0.003957733597653634</v>
+      </c>
+      <c r="P15">
+        <v>0.003957733597653634</v>
+      </c>
+      <c r="Q15">
+        <v>0.01771897468833333</v>
+      </c>
+      <c r="R15">
+        <v>0.159470772195</v>
+      </c>
+      <c r="S15">
+        <v>2.987289196432738E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.987289196432738E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1331983333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.399595</v>
+      </c>
+      <c r="I16">
+        <v>0.007547979475434553</v>
+      </c>
+      <c r="J16">
+        <v>0.007547979475434553</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.03437200000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.103116</v>
-      </c>
-      <c r="O13">
-        <v>0.001029083381771422</v>
-      </c>
-      <c r="P13">
-        <v>0.001029083381771422</v>
-      </c>
-      <c r="Q13">
-        <v>0.002952291281333334</v>
-      </c>
-      <c r="R13">
-        <v>0.026570621532</v>
-      </c>
-      <c r="S13">
-        <v>4.992854536690016E-06</v>
-      </c>
-      <c r="T13">
-        <v>4.992854536690016E-06</v>
+      <c r="M16">
+        <v>0.03541066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.106232</v>
+      </c>
+      <c r="O16">
+        <v>0.001053515340359328</v>
+      </c>
+      <c r="P16">
+        <v>0.001053515340359328</v>
+      </c>
+      <c r="Q16">
+        <v>0.004716641782222222</v>
+      </c>
+      <c r="R16">
+        <v>0.04244977604</v>
+      </c>
+      <c r="S16">
+        <v>7.951912166087654E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.951912166087652E-06</v>
       </c>
     </row>
   </sheetData>
